--- a/data/pca/factorExposure/factorExposure_2013-06-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-13.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002290070579752463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001669687208309247</v>
+      </c>
+      <c r="C2">
+        <v>0.03116088343106163</v>
+      </c>
+      <c r="D2">
+        <v>0.003933497157498072</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001868664763834321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005747564798444613</v>
+      </c>
+      <c r="C4">
+        <v>0.08444668638336777</v>
+      </c>
+      <c r="D4">
+        <v>0.07994554006159095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002183094955520491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01282682306521168</v>
+      </c>
+      <c r="C6">
+        <v>0.1070061643904644</v>
+      </c>
+      <c r="D6">
+        <v>0.03405773803897225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00135927227775354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004898249991516589</v>
+      </c>
+      <c r="C7">
+        <v>0.05178909266502612</v>
+      </c>
+      <c r="D7">
+        <v>0.03828521679201769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.003247907843749689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005607155708764001</v>
+      </c>
+      <c r="C8">
+        <v>0.03621924985632944</v>
+      </c>
+      <c r="D8">
+        <v>0.0425133179796745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005364100560722586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.00390188672285729</v>
+      </c>
+      <c r="C9">
+        <v>0.06885958403942261</v>
+      </c>
+      <c r="D9">
+        <v>0.06991296336804394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.00535755886177911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005761486920218516</v>
+      </c>
+      <c r="C10">
+        <v>0.07767914206042331</v>
+      </c>
+      <c r="D10">
+        <v>-0.2115928002389516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.00477213713768319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.004922861650788628</v>
+      </c>
+      <c r="C11">
+        <v>0.07908363919715856</v>
+      </c>
+      <c r="D11">
+        <v>0.0655019704986443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0007598252632657988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003620064661802003</v>
+      </c>
+      <c r="C12">
+        <v>0.06306490584588151</v>
+      </c>
+      <c r="D12">
+        <v>0.04720856793386308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.004254172734197572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008570100434170606</v>
+      </c>
+      <c r="C13">
+        <v>0.07015775725663211</v>
+      </c>
+      <c r="D13">
+        <v>0.07078628622350583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.003962180187056931</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.00152467161603966</v>
+      </c>
+      <c r="C14">
+        <v>0.0470959119492621</v>
+      </c>
+      <c r="D14">
+        <v>0.01448992459502367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002795134531519145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005580864043688611</v>
+      </c>
+      <c r="C15">
+        <v>0.03756419332156233</v>
+      </c>
+      <c r="D15">
+        <v>0.04105028108854167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002825423993221921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004655700398789737</v>
+      </c>
+      <c r="C16">
+        <v>0.06477985937378107</v>
+      </c>
+      <c r="D16">
+        <v>0.05028557674254961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0008771249340553992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008856839125193743</v>
+      </c>
+      <c r="C20">
+        <v>0.06515384131007579</v>
+      </c>
+      <c r="D20">
+        <v>0.05745727356605679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005188239619377219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009774843730730766</v>
+      </c>
+      <c r="C21">
+        <v>0.02470617200356747</v>
+      </c>
+      <c r="D21">
+        <v>0.03752411141133152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01595391434666344</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007203765040939648</v>
+      </c>
+      <c r="C22">
+        <v>0.08713664034886556</v>
+      </c>
+      <c r="D22">
+        <v>0.1077189528508391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01614577259642117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00697576086446617</v>
+      </c>
+      <c r="C23">
+        <v>0.08962428589561625</v>
+      </c>
+      <c r="D23">
+        <v>0.1044362358228441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003658938970806578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004397429139225184</v>
+      </c>
+      <c r="C24">
+        <v>0.0726147905940894</v>
+      </c>
+      <c r="D24">
+        <v>0.06013088161912516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005013959991720794</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.00253014115160811</v>
+      </c>
+      <c r="C25">
+        <v>0.07679033179990907</v>
+      </c>
+      <c r="D25">
+        <v>0.06475831895974429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005917975200473006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00352201973103641</v>
+      </c>
+      <c r="C26">
+        <v>0.04133000056971802</v>
+      </c>
+      <c r="D26">
+        <v>0.0281503819952304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004711008566699497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00048206027649433</v>
+      </c>
+      <c r="C28">
+        <v>0.1261990154782692</v>
+      </c>
+      <c r="D28">
+        <v>-0.308054513727939</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001865621550740172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003204262716806735</v>
+      </c>
+      <c r="C29">
+        <v>0.04876641670565685</v>
+      </c>
+      <c r="D29">
+        <v>0.01918323126026922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005614787658445294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008758967844905857</v>
+      </c>
+      <c r="C30">
+        <v>0.1370691682795767</v>
+      </c>
+      <c r="D30">
+        <v>0.1080945257346279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001937107893075086</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006044972113143878</v>
+      </c>
+      <c r="C31">
+        <v>0.04598683577306004</v>
+      </c>
+      <c r="D31">
+        <v>0.03549079006198134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001182757112659842</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004033112106738246</v>
+      </c>
+      <c r="C32">
+        <v>0.0419069470330335</v>
+      </c>
+      <c r="D32">
+        <v>0.01434680333119231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002745080528322181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00749923074802837</v>
+      </c>
+      <c r="C33">
+        <v>0.08212413585477463</v>
+      </c>
+      <c r="D33">
+        <v>0.07631170195982301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005215030018352352</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003490099898633948</v>
+      </c>
+      <c r="C34">
+        <v>0.0567744096214569</v>
+      </c>
+      <c r="D34">
+        <v>0.04506580341772737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003748702760910181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004833059313225402</v>
+      </c>
+      <c r="C35">
+        <v>0.03962453196206736</v>
+      </c>
+      <c r="D35">
+        <v>0.01269285203282302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00441498824074139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001495325831525528</v>
+      </c>
+      <c r="C36">
+        <v>0.02428987536280224</v>
+      </c>
+      <c r="D36">
+        <v>0.02497313316451241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001900056450323455</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009558336764089164</v>
+      </c>
+      <c r="C38">
+        <v>0.03384722047982918</v>
+      </c>
+      <c r="D38">
+        <v>0.03075641217813933</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01359514258624209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001264450418605166</v>
+      </c>
+      <c r="C39">
+        <v>0.1148657260624502</v>
+      </c>
+      <c r="D39">
+        <v>0.08155752215864434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008304057068969747</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002073626743463238</v>
+      </c>
+      <c r="C40">
+        <v>0.08549570785754322</v>
+      </c>
+      <c r="D40">
+        <v>0.02775839784980816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004642037793099632</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007268583683872112</v>
+      </c>
+      <c r="C41">
+        <v>0.03980489355097029</v>
+      </c>
+      <c r="D41">
+        <v>0.03864919757087786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002126869931059121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.002911830912529649</v>
+      </c>
+      <c r="C43">
+        <v>0.05098010159026793</v>
+      </c>
+      <c r="D43">
+        <v>0.03135568784210971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005075664012650249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003207035431533447</v>
+      </c>
+      <c r="C44">
+        <v>0.1073356496993186</v>
+      </c>
+      <c r="D44">
+        <v>0.08421886746521445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002843808002764134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002268662345671375</v>
+      </c>
+      <c r="C46">
+        <v>0.03461284563130596</v>
+      </c>
+      <c r="D46">
+        <v>0.03403075338184822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001500762271593563</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002919765450038652</v>
+      </c>
+      <c r="C47">
+        <v>0.0388928037822803</v>
+      </c>
+      <c r="D47">
+        <v>0.03048238698468739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004449740511839816</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006396448468482601</v>
+      </c>
+      <c r="C48">
+        <v>0.03020425743332655</v>
+      </c>
+      <c r="D48">
+        <v>0.03244449647235539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0147536328105792</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01351863264842798</v>
+      </c>
+      <c r="C49">
+        <v>0.1709685307250834</v>
+      </c>
+      <c r="D49">
+        <v>0.03284134023121889</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-4.038953875090651e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003509070802075609</v>
+      </c>
+      <c r="C50">
+        <v>0.04150567791643939</v>
+      </c>
+      <c r="D50">
+        <v>0.04055140462622236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001926774763512792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004152123142690038</v>
+      </c>
+      <c r="C51">
+        <v>0.01990125378644253</v>
+      </c>
+      <c r="D51">
+        <v>0.03221753802293301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001426833344007293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.0200427223511658</v>
+      </c>
+      <c r="C53">
+        <v>0.1655562001707909</v>
+      </c>
+      <c r="D53">
+        <v>0.05204371143667243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0001892221611157769</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008166781159886397</v>
+      </c>
+      <c r="C54">
+        <v>0.055345917223293</v>
+      </c>
+      <c r="D54">
+        <v>0.04120645148163907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004422496159023948</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009184204816485783</v>
+      </c>
+      <c r="C55">
+        <v>0.1056338870093305</v>
+      </c>
+      <c r="D55">
+        <v>0.0537006489322293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003282840244975644</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0192374969456234</v>
+      </c>
+      <c r="C56">
+        <v>0.1715337725489628</v>
+      </c>
+      <c r="D56">
+        <v>0.05121983070881354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006779759397045743</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01905825083002578</v>
+      </c>
+      <c r="C58">
+        <v>0.1006581945571644</v>
+      </c>
+      <c r="D58">
+        <v>0.07878776477344167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00644809346844038</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008936852089341569</v>
+      </c>
+      <c r="C59">
+        <v>0.1680685685894851</v>
+      </c>
+      <c r="D59">
+        <v>-0.274901551538688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006198333044241599</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02310707732758722</v>
+      </c>
+      <c r="C60">
+        <v>0.2211911575194539</v>
+      </c>
+      <c r="D60">
+        <v>0.02770237464480388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01604753420750905</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.00224005537244587</v>
+      </c>
+      <c r="C61">
+        <v>0.09532009930492062</v>
+      </c>
+      <c r="D61">
+        <v>0.06153283591982581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1864475971227025</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1432398862986692</v>
+      </c>
+      <c r="C62">
+        <v>0.07353397409369432</v>
+      </c>
+      <c r="D62">
+        <v>0.05218558671528478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002089657643687396</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006362706516579822</v>
+      </c>
+      <c r="C63">
+        <v>0.05878639967124168</v>
+      </c>
+      <c r="D63">
+        <v>0.02729767102972864</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.00700546288595087</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01436142285745304</v>
+      </c>
+      <c r="C64">
+        <v>0.1001300900080375</v>
+      </c>
+      <c r="D64">
+        <v>0.06690341949668724</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0008090249175564864</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01665054422536572</v>
+      </c>
+      <c r="C65">
+        <v>0.1123176292322407</v>
+      </c>
+      <c r="D65">
+        <v>0.02974923519007098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01033862594835343</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01166925542879485</v>
+      </c>
+      <c r="C66">
+        <v>0.1528676934192063</v>
+      </c>
+      <c r="D66">
+        <v>0.1188810906632598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002214093749029085</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01554912659460543</v>
+      </c>
+      <c r="C67">
+        <v>0.06284855803590403</v>
+      </c>
+      <c r="D67">
+        <v>0.04157416963747582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007722761382729745</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001441207136070313</v>
+      </c>
+      <c r="C68">
+        <v>0.1122499940427823</v>
+      </c>
+      <c r="D68">
+        <v>-0.2629618322009084</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003463843007786392</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005674688099923707</v>
+      </c>
+      <c r="C69">
+        <v>0.04578405196495411</v>
+      </c>
+      <c r="D69">
+        <v>0.04712198220877472</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001669660258645923</v>
+      </c>
+      <c r="C70">
+        <v>0.002011609835476699</v>
+      </c>
+      <c r="D70">
+        <v>0.002320462933771877</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003371829648551795</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006132428207572903</v>
+      </c>
+      <c r="C71">
+        <v>0.1140558645907584</v>
+      </c>
+      <c r="D71">
+        <v>-0.2811758482074313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008876500798549746</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01504430526392031</v>
+      </c>
+      <c r="C72">
+        <v>0.1499577852494464</v>
+      </c>
+      <c r="D72">
+        <v>0.02626618265413329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01329390654615073</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02996632330559576</v>
+      </c>
+      <c r="C73">
+        <v>0.2839589070816506</v>
+      </c>
+      <c r="D73">
+        <v>0.0503873445624956</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004691720245043864</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001399404094343158</v>
+      </c>
+      <c r="C74">
+        <v>0.1025953242875002</v>
+      </c>
+      <c r="D74">
+        <v>0.04331575961156098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006262104334284517</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01045802478837036</v>
+      </c>
+      <c r="C75">
+        <v>0.1308366284503251</v>
+      </c>
+      <c r="D75">
+        <v>0.04077293229193876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01202563436336115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02110426027896787</v>
+      </c>
+      <c r="C76">
+        <v>0.1451041402814104</v>
+      </c>
+      <c r="D76">
+        <v>0.07260130732745218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001289505191934433</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02327074197908808</v>
+      </c>
+      <c r="C77">
+        <v>0.1291466780401437</v>
+      </c>
+      <c r="D77">
+        <v>0.0624117020556916</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0007411413130825117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01374112438201547</v>
+      </c>
+      <c r="C78">
+        <v>0.09027084154994836</v>
+      </c>
+      <c r="D78">
+        <v>0.06739731474726922</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.0273342468033429</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03657862550877276</v>
+      </c>
+      <c r="C79">
+        <v>0.1561550607518073</v>
+      </c>
+      <c r="D79">
+        <v>0.03634246354884049</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005694509331801865</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.0105047755309719</v>
+      </c>
+      <c r="C80">
+        <v>0.04158277810927363</v>
+      </c>
+      <c r="D80">
+        <v>0.03549485209283077</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0006549190675938879</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01450737408169553</v>
+      </c>
+      <c r="C81">
+        <v>0.1202397542252535</v>
+      </c>
+      <c r="D81">
+        <v>0.05949268204187775</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007040909081051123</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01923735292428756</v>
+      </c>
+      <c r="C82">
+        <v>0.1410288382616718</v>
+      </c>
+      <c r="D82">
+        <v>0.04785519205706092</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006615247655526547</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009664039035041667</v>
+      </c>
+      <c r="C83">
+        <v>0.05735292091868728</v>
+      </c>
+      <c r="D83">
+        <v>0.04901138020810175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01358644998032631</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01176579099849729</v>
+      </c>
+      <c r="C84">
+        <v>0.03026655215002085</v>
+      </c>
+      <c r="D84">
+        <v>0.001011986610180185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01598710449260753</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02776529925564448</v>
+      </c>
+      <c r="C85">
+        <v>0.1291194206414382</v>
+      </c>
+      <c r="D85">
+        <v>0.05267069677961102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003719523793507865</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005390418330775948</v>
+      </c>
+      <c r="C86">
+        <v>0.04652334349347406</v>
+      </c>
+      <c r="D86">
+        <v>0.02161448400426328</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008092041344650334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.009486994466624267</v>
+      </c>
+      <c r="C87">
+        <v>0.126621001675227</v>
+      </c>
+      <c r="D87">
+        <v>0.08115978652369274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01429394492402686</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003090111553692567</v>
+      </c>
+      <c r="C88">
+        <v>0.0697408505590921</v>
+      </c>
+      <c r="D88">
+        <v>0.02134646091594561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01468531733291769</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001562507593682525</v>
+      </c>
+      <c r="C89">
+        <v>0.1633593099781707</v>
+      </c>
+      <c r="D89">
+        <v>-0.3438124170441427</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001740822283029164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00737879216069453</v>
+      </c>
+      <c r="C90">
+        <v>0.1461472837404074</v>
+      </c>
+      <c r="D90">
+        <v>-0.3166608842671453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001520221692299326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01003019831008533</v>
+      </c>
+      <c r="C91">
+        <v>0.102489425295549</v>
+      </c>
+      <c r="D91">
+        <v>0.02391752540486963</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01490962777612185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004554563720495251</v>
+      </c>
+      <c r="C92">
+        <v>0.1539475446932702</v>
+      </c>
+      <c r="D92">
+        <v>-0.3259611547165119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001043427634231771</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005215732772613497</v>
+      </c>
+      <c r="C93">
+        <v>0.1265467071264555</v>
+      </c>
+      <c r="D93">
+        <v>-0.3104633625999969</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00250912364842044</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02168138457214127</v>
+      </c>
+      <c r="C94">
+        <v>0.1555871540718309</v>
+      </c>
+      <c r="D94">
+        <v>0.03508528703949519</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.0064844485495175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01569478108805308</v>
+      </c>
+      <c r="C95">
+        <v>0.1227660781210515</v>
+      </c>
+      <c r="D95">
+        <v>0.06966028249567352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.004493865777948857</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03449104887243568</v>
+      </c>
+      <c r="C97">
+        <v>0.1737480391648225</v>
+      </c>
+      <c r="D97">
+        <v>0.04160027702696636</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006821881369069197</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03555723603161037</v>
+      </c>
+      <c r="C98">
+        <v>0.2593905674729245</v>
+      </c>
+      <c r="D98">
+        <v>0.0442754112621679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9800584677037495</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9829602295985517</v>
+      </c>
+      <c r="C99">
+        <v>-0.10724584733967</v>
+      </c>
+      <c r="D99">
+        <v>-0.03244076808859935</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001821428962929782</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003249900646503719</v>
+      </c>
+      <c r="C101">
+        <v>0.04884101836607159</v>
+      </c>
+      <c r="D101">
+        <v>0.01922924183673508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
